--- a/Print Room Supply Order.xlsx
+++ b/Print Room Supply Order.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Print Room Supply Order" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="Incoming" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Outgoing" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Users" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -697,17 +698,17 @@
   </sheetPr>
   <dimension ref="A2:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,15 +1270,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="34.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.01"/>
@@ -1829,13 +1830,13 @@
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.55"/>
   </cols>
   <sheetData>
@@ -1887,7 +1888,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.55"/>
@@ -1934,7 +1935,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1962,4 +1963,27 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>